--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>drop</t>
@@ -76,48 +73,45 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>cut</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -127,18 +121,18 @@
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -160,37 +154,43 @@
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>heroes</t>
@@ -199,112 +199,100 @@
     <t>gt</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>alert</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -662,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,16 +740,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -849,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.821917808219178</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -931,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7837837837837838</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8484848484848485</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,16 +1090,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6451612903225806</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L12">
+        <v>315</v>
+      </c>
+      <c r="M12">
+        <v>315</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>68</v>
-      </c>
-      <c r="M12">
-        <v>68</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6271186440677966</v>
+        <v>0.5988372093023255</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.828125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5891472868217055</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8275862068965517</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.8113207547169812</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5873015873015873</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.79375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5704697986577181</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.525</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1581,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5128205128205128</v>
+        <v>0.44</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20">
         <v>0.75</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4533333333333333</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7441860465116279</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4464285714285715</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7301587301587301</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,31 +1769,31 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.3386454183266932</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L24">
         <v>35</v>
@@ -1823,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3818181818181818</v>
+        <v>0.3125</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3246753246753247</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.6617647058823529</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L26">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,37 +1919,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0.2291105121293801</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2896825396825397</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C28">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.6363636363636364</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2412868632707775</v>
+        <v>0.07167235494880546</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.6307692307692307</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,37 +2069,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1333333333333333</v>
+        <v>0.04080310880829015</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>260</v>
+        <v>2962</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,37 +2119,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08191126279863481</v>
+        <v>0.03546712802768166</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>269</v>
+        <v>1115</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6108786610878661</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L31">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,37 +2169,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03816131830008673</v>
+        <v>0.02671312427409988</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F32">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1109</v>
+        <v>838</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L32">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,37 +2219,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03630470016207456</v>
+        <v>0.02650260293421675</v>
       </c>
       <c r="C33">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E33">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="F33">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2973</v>
+        <v>2057</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.5857142857142857</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2273,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,163 +2269,115 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02688679245283019</v>
+        <v>0.01094303186353396</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E34">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="F34">
-        <v>0.71</v>
+        <v>0.27</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2063</v>
+        <v>3073</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L34">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.5672268907563025</v>
+      </c>
+      <c r="L35">
+        <v>135</v>
+      </c>
+      <c r="M35">
+        <v>136</v>
+      </c>
+      <c r="N35">
+        <v>0.99</v>
+      </c>
+      <c r="O35">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34">
-        <v>0.58</v>
-      </c>
-      <c r="L34">
-        <v>29</v>
-      </c>
-      <c r="M34">
-        <v>29</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.02331002331002331</v>
-      </c>
-      <c r="C35">
+      <c r="K36">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>20</v>
-      </c>
-      <c r="D35">
-        <v>29</v>
-      </c>
-      <c r="E35">
-        <v>0.31</v>
-      </c>
-      <c r="F35">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>838</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L35">
-        <v>51</v>
-      </c>
-      <c r="M35">
-        <v>51</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.008069722401549387</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>128</v>
-      </c>
-      <c r="E36">
-        <v>0.8</v>
-      </c>
-      <c r="F36">
-        <v>0.2</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3073</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L36">
-        <v>24</v>
-      </c>
-      <c r="M36">
-        <v>24</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.5294117647058824</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2449,47 +2389,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.4634146341463415</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.4246575342465753</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2501,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.4035087719298245</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2527,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2553,47 +2493,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.3717948717948718</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M42">
         <v>29</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.360655737704918</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2605,47 +2545,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44">
+        <v>0.2149532710280374</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>0.92</v>
+      </c>
+      <c r="O44">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
         <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="L44">
-        <v>19</v>
-      </c>
-      <c r="M44">
-        <v>19</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.217741935483871</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2657,125 +2597,125 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.2149532710280374</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.1549295774647887</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
         <v>22</v>
       </c>
-      <c r="M47">
-        <v>23</v>
-      </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>0.1513513513513514</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.1481481481481481</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.1009771986970684</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>0.97</v>
@@ -2787,47 +2727,47 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>0.07449856733524356</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>323</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.07291666666666667</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
         <v>21</v>
-      </c>
-      <c r="M52">
-        <v>22</v>
       </c>
       <c r="N52">
         <v>0.95</v>
@@ -2839,79 +2779,79 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K53">
-        <v>0.06490384615384616</v>
+        <v>0.03599374021909233</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>389</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K54">
-        <v>0.03924646781789639</v>
+        <v>0.03567447045707915</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>0.66</v>
+        <v>0.89</v>
       </c>
       <c r="O54">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>612</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>0.03243073047858942</v>
+        <v>0.02968108620145248</v>
       </c>
       <c r="L55">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M55">
         <v>128</v>
       </c>
       <c r="N55">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="O55">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -2922,106 +2862,54 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K56">
-        <v>0.03240223463687151</v>
+        <v>0.01437470052707235</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="N56">
-        <v>0.83</v>
+        <v>0.35</v>
       </c>
       <c r="O56">
-        <v>0.17</v>
+        <v>0.65</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>866</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="K57">
-        <v>0.01989528795811518</v>
+        <v>0.00637370010063737</v>
       </c>
       <c r="L57">
         <v>19</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="N57">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="O57">
-        <v>0.41</v>
+        <v>0.87</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K58">
-        <v>0.01102588686481304</v>
-      </c>
-      <c r="L58">
-        <v>23</v>
-      </c>
-      <c r="M58">
-        <v>80</v>
-      </c>
-      <c r="N58">
-        <v>0.29</v>
-      </c>
-      <c r="O58">
-        <v>0.71</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59">
-        <v>0.007345575959933222</v>
-      </c>
-      <c r="L59">
-        <v>22</v>
-      </c>
-      <c r="M59">
-        <v>134</v>
-      </c>
-      <c r="N59">
-        <v>0.16</v>
-      </c>
-      <c r="O59">
-        <v>0.84</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2973</v>
+        <v>2962</v>
       </c>
     </row>
   </sheetData>
